--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V66"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.62</v>
+        <v>4.01</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.76</v>
+        <v>4.79</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>11/08/2023 18:58</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.01</v>
+        <v>1.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.79</v>
+        <v>1.76</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>4.65</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>3.96</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.73</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:37</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.99</v>
+        <v>2.44</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.73</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:37</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:51</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.65</v>
+        <v>3.16</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>B.93</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:51</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.16</v>
+        <v>2.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.4</v>
+        <v>2.19</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.36</v>
+        <v>2.73</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.75</v>
+        <v>3.53</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:55</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>6.3</v>
+        <v>3.18</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>7.36</v>
+        <v>2.61</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:55</t>
+          <t>23/08/2023 18:08</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-koge/QZTHMOp3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.19</v>
+        <v>1.4</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.73</v>
+        <v>1.36</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.53</v>
+        <v>4.75</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:55</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.61</v>
+        <v>7.36</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:08</t>
+          <t>23/08/2023 18:55</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-koge/QZTHMOp3/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.46</v>
+        <v>1.59</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.79</v>
+        <v>4.02</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.9</v>
+        <v>4.54</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.62</v>
+        <v>4.97</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>1.79</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.72</v>
-      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>1.83</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>3.9</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.85</v>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.79</v>
+        <v>3.19</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -6526,6 +6526,282 @@
       <c r="V66" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-kolding-if/fH48sJ02/</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45205.77083333334</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P67" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>01/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-sonderjyske/dt1Pwy0R/</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P68" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>30/09/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>29/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>29/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P69" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>29/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V69"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.01</v>
+        <v>1.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.79</v>
+        <v>1.76</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.74</v>
+        <v>4.65</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>3.96</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.62</v>
+        <v>4.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,48 +2344,48 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.76</v>
+        <v>4.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>11/08/2023 18:58</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.99</v>
+        <v>2.44</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.73</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:37</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.73</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:37</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>B.93</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:51</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.16</v>
+        <v>2.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:51</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.65</v>
+        <v>3.16</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.73</v>
+        <v>1.82</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.61</v>
+        <v>4.08</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:08</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Hillerod</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>6</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.82</v>
+        <v>2.73</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:08</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.02</v>
+        <v>3.79</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.54</v>
+        <v>3.9</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.97</v>
+        <v>2.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.16</v>
+        <v>1.59</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.79</v>
+        <v>3.72</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.83</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.46</v>
+        <v>4.16</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>2.44</v>
+        <v>3.87</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.98</v>
+        <v>4.85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:46</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.55</v>
+        <v>4.09</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:47</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.66</v>
+        <v>1.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:45</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.87</v>
+        <v>2.44</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.85</v>
+        <v>2.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:46</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.09</v>
+        <v>3.55</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:47</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:45</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
         </is>
       </c>
     </row>
@@ -6802,6 +6802,98 @@
       <c r="V69" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>3</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:34</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P70" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:34</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>01/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:34</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-koge/6FjaXYxe/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6897,6 +6897,98 @@
         </is>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45207.54166666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:54</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-hobro/lvt4Whh1/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.62</v>
+        <v>4.01</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,48 +2252,48 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.76</v>
+        <v>4.79</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>11/08/2023 18:58</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J21" t="n">
-        <v>4.01</v>
+        <v>1.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.79</v>
+        <v>1.76</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>4.65</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.64</v>
+        <v>3.96</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
         </is>
       </c>
     </row>
@@ -6986,6 +6986,98 @@
       <c r="V71" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-hobro/lvt4Whh1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45208.79166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-vendsyssel-ff/bkmiZf8r/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,6 +7081,98 @@
         </is>
       </c>
     </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45218.79166666666</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>12/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>12/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>12/10/2023 19:43</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>19/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-horsens/21WchzFK/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.66</v>
+        <v>1.96</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.86</v>
+        <v>2.7</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.53</v>
+        <v>3.64</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:16</t>
+          <t>23/07/2023 13:15</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Naestved</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.7</v>
+        <v>1.88</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:15</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.5</v>
+        <v>4.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
         </is>
       </c>
     </row>
@@ -1033,71 +1033,71 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>07/07/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>23/07/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>07/07/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>23/07/2023 13:16</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>07/07/2023 11:12</t>
         </is>
       </c>
-      <c r="L7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>23/07/2023 13:56</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>07/07/2023 11:12</t>
-        </is>
-      </c>
-      <c r="P7" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>23/07/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>07/07/2023 11:12</t>
-        </is>
-      </c>
       <c r="T7" t="n">
-        <v>4.02</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:32</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,14 +2237,14 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
-        <v>4.01</v>
+        <v>1.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -2252,15 +2252,15 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.79</v>
+        <v>1.76</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.99</v>
+        <v>4.07</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2268,15 +2268,15 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.37</v>
+        <v>4.42</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>11/08/2023 18:59</t>
+          <t>11/08/2023 18:58</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.74</v>
+        <v>4.65</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.64</v>
+        <v>3.96</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
         </is>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G21" t="n">
@@ -2329,14 +2329,14 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1.62</v>
+        <v>4.01</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,48 +2344,48 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.76</v>
+        <v>4.79</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>11/08/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>08/08/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>11/08/2023 18:58</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>08/08/2023 14:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>11/08/2023 18:58</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-boldklubben-1893/8QJO4jPH/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-aalborg/UZKK5W9B/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.73</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:37</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.99</v>
+        <v>2.44</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.66</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>3.73</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.73</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:37</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.21</v>
+        <v>2.08</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.43</v>
+        <v>3.57</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.87</v>
+        <v>3.97</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:51</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.65</v>
+        <v>3.16</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>22/08/2023 18:57</t>
+          <t>22/08/2023 18:56</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>B.93</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.18</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.57</v>
+        <v>3.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.97</v>
+        <v>3.87</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:51</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.16</v>
+        <v>2.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>22/08/2023 18:56</t>
+          <t>22/08/2023 18:57</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-boldklubben-1893/KxwSa1wj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-horsens/vRLU0sOq/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Hillerod</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>6</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.82</v>
+        <v>2.73</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.08</v>
+        <v>2.61</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:08</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>2.19</v>
+        <v>2.12</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.73</v>
+        <v>1.82</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>3.97</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.18</v>
+        <v>3.35</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.61</v>
+        <v>4.08</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:08</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.46</v>
+        <v>1.59</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.79</v>
+        <v>4.02</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.9</v>
+        <v>4.54</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.62</v>
+        <v>4.97</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>1.79</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.72</v>
-      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>1.83</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>3.9</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.85</v>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.79</v>
+        <v>3.19</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -7170,6 +7170,282 @@
       <c r="V73" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-horsens/21WchzFK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:38</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:39</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:36</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:35</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45219.79166666666</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>4</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>20/10/2023 18:39</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.87</v>
+        <v>2.44</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.85</v>
+        <v>2.98</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:46</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.09</v>
+        <v>3.55</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:47</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:45</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.44</v>
+        <v>3.87</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.98</v>
+        <v>4.85</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:46</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.55</v>
+        <v>4.09</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:47</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.66</v>
+        <v>1.85</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:45</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.92</v>
+        <v>2.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.85</v>
+        <v>3.03</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:38</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.56</v>
+        <v>2.26</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>4.38</v>
+        <v>2.31</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:36</t>
+          <t>20/10/2023 18:35</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.03</v>
+        <v>1.85</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:38</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.26</v>
+        <v>3.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.31</v>
+        <v>4.38</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:35</t>
+          <t>20/10/2023 18:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>10.57</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-boldklubben-1893/KxsggGaE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45221.66666666666</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>3</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>2</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-naestved-if/tnrkfdp8/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,63 +4353,63 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.02</v>
+        <v>3.79</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>4.54</v>
+        <v>3.9</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>4.97</v>
+        <v>2.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.16</v>
+        <v>1.59</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.79</v>
+        <v>3.72</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.83</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.46</v>
+        <v>4.16</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>2.6</v>
+        <v>3.66</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.6</v>
+        <v>3.88</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:53</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.5</v>
+        <v>3.86</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.81</v>
+        <v>3.72</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:54</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:54</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.66</v>
+        <v>2.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:53</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.72</v>
+        <v>3.81</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:54</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:54</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,558 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/koge-naestved-if/tnrkfdp8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>2</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:50</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>20/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-aalborg/hUJ0k7bt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>3</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-fredericia/EaIlrjiD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45228.54166666666</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>23/10/2023 09:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>29/10/2023 12:43</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-vendsyssel-ff/82FtpCM0/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.46</v>
+        <v>4.16</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>2</v>
       </c>
       <c r="J45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
         <v>3.9</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.85</v>
-      </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.79</v>
+        <v>3.19</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" t="n">
-        <v>3.66</v>
+        <v>2.6</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:53</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.72</v>
+        <v>3.81</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:54</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:54</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
-        <v>2.6</v>
+        <v>3.66</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.6</v>
+        <v>3.88</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:53</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.5</v>
+        <v>3.86</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.81</v>
+        <v>3.72</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:54</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:54</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>1.74</v>
+        <v>5.01</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.65</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.92</v>
+        <v>4.47</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.26</v>
+        <v>5.46</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>4.42</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>4.85</v>
+        <v>1.34</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:50</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>5.01</v>
+        <v>1.74</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8.029999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.47</v>
+        <v>3.92</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5.46</v>
+        <v>4.26</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.57</v>
+        <v>4.42</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.34</v>
+        <v>4.85</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:50</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,190 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-vendsyssel-ff/82FtpCM0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-horsens/dMGHoPc5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45233.79166666666</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>03/11/2023 18:54</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hobro/jqGLpqDB/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>5.01</v>
+        <v>1.84</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>8.029999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.46</v>
+        <v>3.59</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.57</v>
+        <v>3.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.34</v>
+        <v>3.27</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:50</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.74</v>
+        <v>5.01</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.65</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.92</v>
+        <v>4.47</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.26</v>
+        <v>5.46</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.42</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.85</v>
+        <v>1.34</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:50</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Hillerod</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.17</v>
+        <v>1.65</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,15 +7872,15 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.59</v>
+        <v>4.26</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,15 +7888,15 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.63</v>
+        <v>4.42</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.27</v>
+        <v>4.85</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,98 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hobro/jqGLpqDB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:13</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-boldklubben-1893/UZEPq3SH/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V87"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:55</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>27/08/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P43" t="n">
         <v>3.9</v>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:58</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>28/08/2023 18:42</t>
-        </is>
-      </c>
-      <c r="P43" t="n">
-        <v>3.85</v>
-      </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.79</v>
+        <v>3.19</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.83</v>
+        <v>2.62</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
         <v>1.79</v>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="R44" t="n">
-        <v>3.72</v>
-      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>1.83</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,63 +4537,63 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.46</v>
+        <v>1.59</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.79</v>
+        <v>4.02</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.9</v>
+        <v>4.54</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.19</v>
+        <v>3.72</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.62</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
-        <v>2.44</v>
+        <v>3.87</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.98</v>
+        <v>4.85</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:46</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.55</v>
+        <v>4.09</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:47</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.66</v>
+        <v>1.85</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:45</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.87</v>
+        <v>2.44</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>4.85</v>
+        <v>2.98</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:46</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.09</v>
+        <v>3.55</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:47</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:45</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>5.01</v>
+        <v>1.74</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8.029999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.47</v>
+        <v>3.92</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5.46</v>
+        <v>4.26</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.57</v>
+        <v>4.42</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.34</v>
+        <v>4.85</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:50</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J81" t="n">
-        <v>1.74</v>
+        <v>5.01</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.65</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.92</v>
+        <v>4.47</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.26</v>
+        <v>5.46</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.42</v>
+        <v>1.57</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.85</v>
+        <v>1.34</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:50</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
         </is>
       </c>
     </row>
@@ -8458,6 +8458,98 @@
       <c r="V87" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-boldklubben-1893/UZEPq3SH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-kolding-if/M3O4lRDn/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8553,6 +8553,98 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45235.625</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:04</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>29/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>11.31</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-helsingor/rJCDn5ra/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V89"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>29/07/2023 13:58</t>
+          <t>29/07/2023 13:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.59</v>
+        <v>3.88</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,32 +1348,32 @@
         </is>
       </c>
       <c r="P10" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>29/07/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
         <v>4.41</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>29/07/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v>3.99</v>
-      </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>24/07/2023 03:42</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5.96</v>
+        <v>5.04</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>29/07/2023 13:58</t>
+          <t>29/07/2023 13:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-hillerod/vo6xggQ5/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-horsens/pO6YgZAa/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Horsens</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>29/07/2023 13:59</t>
+          <t>29/07/2023 13:58</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.88</v>
+        <v>3.59</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.39</v>
+        <v>4.41</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>29/07/2023 13:59</t>
+          <t>29/07/2023 13:58</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.41</v>
+        <v>3.99</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>5.04</v>
+        <v>5.96</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>29/07/2023 13:59</t>
+          <t>29/07/2023 13:58</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-horsens/pO6YgZAa/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-hillerod/vo6xggQ5/</t>
         </is>
       </c>
     </row>
@@ -8642,6 +8642,98 @@
       <c r="V89" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-helsingor/rJCDn5ra/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45236.79166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>30/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>30/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>30/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-naestved-if/0fN8moTh/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Horsens</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>29/07/2023 13:59</t>
+          <t>29/07/2023 13:58</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.88</v>
+        <v>3.59</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.39</v>
+        <v>4.41</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>29/07/2023 13:59</t>
+          <t>29/07/2023 13:58</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.41</v>
+        <v>3.99</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>5.04</v>
+        <v>5.96</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>29/07/2023 13:59</t>
+          <t>29/07/2023 13:58</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-horsens/pO6YgZAa/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-hillerod/vo6xggQ5/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>29/07/2023 13:58</t>
+          <t>29/07/2023 13:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.59</v>
+        <v>3.88</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,32 +1440,32 @@
         </is>
       </c>
       <c r="P11" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>29/07/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
         <v>4.41</v>
       </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>29/07/2023 13:58</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v>3.99</v>
-      </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>24/07/2023 03:42</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>5.96</v>
+        <v>5.04</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>29/07/2023 13:58</t>
+          <t>29/07/2023 13:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-hillerod/vo6xggQ5/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-horsens/pO6YgZAa/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sonderjyske</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.99</v>
+        <v>2.31</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.2</v>
+        <v>3.43</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.89</v>
+        <v>2.73</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:37</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
         </is>
       </c>
     </row>
@@ -2965,22 +2965,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,15 +2988,15 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,15 +3004,15 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,16 +3020,16 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.73</v>
+        <v>2.38</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:37</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>3.9</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>4.16</v>
+        <v>1.59</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>1.79</v>
+        <v>3.72</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>1.83</v>
+        <v>4.97</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>28/08/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>01/09/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
         <v>1.79</v>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>28/08/2023 01:42</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>01/09/2023 18:57</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>3.72</v>
-      </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.97</v>
+        <v>1.83</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.74</v>
+        <v>5.01</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.65</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.92</v>
+        <v>4.47</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.26</v>
+        <v>5.46</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.42</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.85</v>
+        <v>1.34</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:50</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
         </is>
       </c>
     </row>
@@ -7841,71 +7841,71 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>5.01</v>
+        <v>1.74</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>8.029999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>4.47</v>
+        <v>3.92</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5.46</v>
+        <v>4.26</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>1.57</v>
+        <v>4.42</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>1.34</v>
+        <v>4.85</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/10/2023 18:50</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,282 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-naestved-if/0fN8moTh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-fredericia/v1Az2prn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:13</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:51</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-helsingor/Qc6W2QSu/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45240.79166666666</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>5</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>03/11/2023 19:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>10/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-sonderjyske/AoWMrNsO/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V93"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>23/07/2023 14:12</t>
+          <t>24/07/2023 03:42</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.7</v>
+        <v>2.73</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>28/07/2023 18:50</t>
+          <t>28/07/2023 18:56</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.92</v>
+        <v>3.35</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>23/07/2023 14:12</t>
+          <t>24/07/2023 03:42</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.14</v>
+        <v>3.39</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>28/07/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>24/07/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>28/07/2023 18:56</t>
         </is>
       </c>
-      <c r="R8" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>23/07/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>28/07/2023 18:56</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-fredericia/6X7UfFeg/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-naestved-if/ldDPeetm/</t>
         </is>
       </c>
     </row>
@@ -1217,62 +1217,62 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Naestved</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
       <c r="J9" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>24/07/2023 03:42</t>
+          <t>23/07/2023 14:12</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.73</v>
+        <v>1.7</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
+          <t>28/07/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>23/07/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>28/07/2023 18:56</t>
         </is>
       </c>
-      <c r="N9" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>24/07/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P9" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>28/07/2023 18:51</t>
-        </is>
-      </c>
       <c r="R9" t="n">
-        <v>3.08</v>
+        <v>3.97</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>24/07/2023 03:42</t>
+          <t>23/07/2023 14:12</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.61</v>
+        <v>4.54</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-naestved-if/ldDPeetm/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-fredericia/6X7UfFeg/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.84</v>
+        <v>1.82</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>3.03</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.6</v>
+        <v>4.01</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.79</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.26</v>
+        <v>3.61</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.31</v>
+        <v>3.8</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:35</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.92</v>
+        <v>2.84</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.85</v>
+        <v>3.03</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:38</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.56</v>
+        <v>2.26</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>4.38</v>
+        <v>2.31</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:36</t>
+          <t>20/10/2023 18:35</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:38</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.01</v>
+        <v>3.68</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.88</v>
+        <v>3.59</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.8</v>
+        <v>4.38</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:36</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>3.16</v>
+        <v>1.54</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/11/2023 18:58</t>
+          <t>03/11/2023 18:54</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.7</v>
+        <v>4.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.7</v>
+        <v>4.29</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/11/2023 18:58</t>
+          <t>03/11/2023 18:54</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.14</v>
+        <v>5.47</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.12</v>
+        <v>6.04</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/11/2023 18:58</t>
+          <t>03/11/2023 18:54</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-horsens/dMGHoPc5/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hobro/jqGLpqDB/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J86" t="n">
-        <v>1.54</v>
+        <v>3.16</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>03/11/2023 18:54</t>
+          <t>03/11/2023 18:58</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>4.36</v>
+        <v>3.7</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.29</v>
+        <v>3.7</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>03/11/2023 18:54</t>
+          <t>03/11/2023 18:58</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>5.47</v>
+        <v>2.14</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>6.04</v>
+        <v>2.12</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>03/11/2023 18:54</t>
+          <t>03/11/2023 18:58</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hobro/jqGLpqDB/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-horsens/dMGHoPc5/</t>
         </is>
       </c>
     </row>
@@ -8761,30 +8761,30 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.87</v>
+        <v>2.51</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 15:13</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,15 +8792,15 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.67</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 15:13</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.73</v>
+        <v>3.59</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
@@ -8808,15 +8808,15 @@
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.22</v>
+        <v>2.68</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 15:13</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.53</v>
+        <v>2.89</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-fredericia/v1Az2prn/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-helsingor/Qc6W2QSu/</t>
         </is>
       </c>
     </row>
@@ -8853,30 +8853,30 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>2.51</v>
+        <v>2.87</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>05/11/2023 15:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,15 +8884,15 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.55</v>
+        <v>3.67</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>05/11/2023 15:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.59</v>
+        <v>3.73</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
@@ -8900,15 +8900,15 @@
         </is>
       </c>
       <c r="R92" t="n">
-        <v>2.68</v>
+        <v>2.22</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>05/11/2023 15:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>2.89</v>
+        <v>2.53</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-helsingor/Qc6W2QSu/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-fredericia/v1Az2prn/</t>
         </is>
       </c>
     </row>
@@ -9010,6 +9010,190 @@
       <c r="V93" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/koge-sonderjyske/AoWMrNsO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45242.54166666666</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>12/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-aalborg/0Gbq0OCb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-vendsyssel-ff/lxVQsscU/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>07/07/2023 11:12</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>23/07/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>07/07/2023 11:12</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>23/07/2023 13:16</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
         <v>2</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>07/07/2023 11:12</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>23/07/2023 13:56</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>07/07/2023 11:12</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.73</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>23/07/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>07/07/2023 11:12</t>
-        </is>
-      </c>
       <c r="T6" t="n">
-        <v>4.02</v>
+        <v>2.42</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:32</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Horsens</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.66</v>
+        <v>1.81</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:16</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>4.15</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>4.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
         </is>
       </c>
     </row>
@@ -1125,62 +1125,62 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Naestved</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.32</v>
+        <v>1.82</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>24/07/2023 03:42</t>
+          <t>23/07/2023 14:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.73</v>
+        <v>1.7</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>28/07/2023 18:50</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>23/07/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
           <t>28/07/2023 18:56</t>
         </is>
       </c>
-      <c r="N8" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>24/07/2023 03:42</t>
-        </is>
-      </c>
-      <c r="P8" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>28/07/2023 18:51</t>
-        </is>
-      </c>
       <c r="R8" t="n">
-        <v>3.08</v>
+        <v>3.97</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>24/07/2023 03:42</t>
+          <t>23/07/2023 14:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.61</v>
+        <v>4.54</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-naestved-if/ldDPeetm/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-fredericia/6X7UfFeg/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>1.82</v>
+        <v>2.32</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>23/07/2023 14:12</t>
+          <t>24/07/2023 03:42</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.7</v>
+        <v>2.73</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>28/07/2023 18:50</t>
+          <t>28/07/2023 18:56</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.92</v>
+        <v>3.35</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>23/07/2023 14:12</t>
+          <t>24/07/2023 03:42</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.14</v>
+        <v>3.39</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>28/07/2023 18:51</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>24/07/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
           <t>28/07/2023 18:56</t>
         </is>
       </c>
-      <c r="R9" t="n">
-        <v>3.97</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>23/07/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>28/07/2023 18:56</t>
-        </is>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-fredericia/6X7UfFeg/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-naestved-if/ldDPeetm/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Helsingor</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.31</v>
+        <v>2.99</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.79</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>3</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Sonderjyske</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.99</v>
+        <v>2.31</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15/09/2023 18:59</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>15/09/2023 18:59</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.53</v>
+        <v>2.7</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>15/09/2023 18:51</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-aalborg/vPhhMmDd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-horsens/QLllNTcj/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:56</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.3</v>
+        <v>3.71</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:56</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.05</v>
+        <v>3.61</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:55</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-horsens/QLllNTcj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-boldklubben-1893/WIuvpi53/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.16</v>
+        <v>2.59</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,48 +5196,48 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:56</t>
+          <t>15/09/2023 18:59</t>
         </is>
       </c>
       <c r="N52" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>08/09/2023 05:12</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
         <v>3.57</v>
       </c>
-      <c r="O52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>15/09/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S52" t="inlineStr">
         <is>
           <t>08/09/2023 05:12</t>
         </is>
       </c>
-      <c r="P52" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>15/09/2023 18:56</t>
-        </is>
-      </c>
-      <c r="R52" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>08/09/2023 05:12</t>
-        </is>
-      </c>
       <c r="T52" t="n">
-        <v>3.61</v>
+        <v>2.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:55</t>
+          <t>15/09/2023 18:51</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-boldklubben-1893/WIuvpi53/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-aalborg/vPhhMmDd/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.03</v>
+        <v>1.85</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:38</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.26</v>
+        <v>3.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.31</v>
+        <v>4.38</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:35</t>
+          <t>20/10/2023 18:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>1.92</v>
+        <v>2.84</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.85</v>
+        <v>3.03</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:38</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.59</v>
+        <v>3.79</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.56</v>
+        <v>2.26</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>4.38</v>
+        <v>2.31</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:36</t>
+          <t>20/10/2023 18:35</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>1.84</v>
+        <v>5.01</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.17</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.9</v>
+        <v>4.47</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.59</v>
+        <v>5.46</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.63</v>
+        <v>1.57</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.27</v>
+        <v>1.34</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:50</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>5.01</v>
+        <v>1.74</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>8.029999999999999</v>
+        <v>1.65</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.47</v>
+        <v>3.92</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5.46</v>
+        <v>4.26</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.57</v>
+        <v>4.42</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.34</v>
+        <v>4.85</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:50</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.65</v>
+        <v>2.17</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,15 +7872,15 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>4.26</v>
+        <v>3.59</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,15 +7888,15 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>4.42</v>
+        <v>3.63</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.85</v>
+        <v>3.27</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
         </is>
       </c>
     </row>
@@ -9194,6 +9194,98 @@
       <c r="V95" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-vendsyssel-ff/lxVQsscU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45243.79166666666</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>06/11/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>13/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-hillerod/MPau14ch/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9289,6 +9289,98 @@
         </is>
       </c>
     </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45253.79166666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>15/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>23/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>15/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>23/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>7.16</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>15/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>23/11/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-boldklubben-1893/pMeVjKZp/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>2</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Naestved</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>1.88</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.64</v>
+        <v>3.77</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.73</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:15</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.7</v>
+        <v>4.15</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>4.02</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.73</v>
+        <v>3.65</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:15</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>4.02</v>
+        <v>2.5</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:38</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.01</v>
+        <v>3.68</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.59</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.61</v>
+        <v>3.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.8</v>
+        <v>4.38</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:36</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:38</t>
+          <t>20/10/2023 18:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.68</v>
+        <v>4.01</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,32 +7328,32 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.59</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>20/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
           <t>20/10/2023 18:39</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>13/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:36</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
         </is>
       </c>
     </row>
@@ -9378,6 +9378,190 @@
       <c r="V97" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-boldklubben-1893/pMeVjKZp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45254.79166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>16/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>16/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>16/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-horsens/Uk3marS4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45254.79166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>4</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>16/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>16/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>16/11/2023 19:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>24/11/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-naestved-if/rD93e0RT/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V99"/>
+  <dimension ref="A1:V102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.32</v>
+        <v>2.27</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21/07/2023 18:59</t>
+          <t>21/07/2023 18:57</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21/07/2023 18:59</t>
+          <t>21/07/2023 18:57</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.13</v>
+        <v>3.16</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>21/07/2023 18:53</t>
+          <t>21/07/2023 18:57</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-sonderjyske/WtpM4V7K/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-koge/b3GI3kNQ/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.27</v>
+        <v>3.32</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21/07/2023 18:57</t>
+          <t>21/07/2023 18:59</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>21/07/2023 18:57</t>
+          <t>21/07/2023 18:59</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.16</v>
+        <v>2.13</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>21/07/2023 18:57</t>
+          <t>21/07/2023 18:53</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-koge/b3GI3kNQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-sonderjyske/WtpM4V7K/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.73</v>
+        <v>3.65</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:15</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>4.02</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Horsens</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>3.66</v>
+        <v>1.81</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:16</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>2</v>
+        <v>4.15</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>2.42</v>
+        <v>4.02</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,14 +1041,14 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1.96</v>
+        <v>3.66</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:32</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.64</v>
+        <v>3.53</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:15</t>
+          <t>23/07/2023 13:16</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:32</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
       <c r="J14" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>3</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Sonderjyske</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.99</v>
+        <v>2.31</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
         </is>
       </c>
     </row>
@@ -2873,22 +2873,22 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J27" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -2896,15 +2896,15 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.44</v>
+        <v>2.99</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.66</v>
+        <v>3.6</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,15 +2912,15 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.73</v>
+        <v>3.45</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:47</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,16 +2928,16 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.73</v>
+        <v>2.38</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:37</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
-        <v>2.01</v>
+        <v>2.04</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.31</v>
+        <v>2.44</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.79</v>
+        <v>3.66</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.76</v>
+        <v>3.73</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:47</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.2</v>
+        <v>3.43</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.89</v>
+        <v>2.73</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:37</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-fredericia/8xrn95G3/</t>
         </is>
       </c>
     </row>
@@ -4989,22 +4989,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.52</v>
+        <v>2.59</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -5012,15 +5012,15 @@
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.42</v>
+        <v>2.6</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:59</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -5028,15 +5028,15 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>2.7</v>
+        <v>2.53</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -5044,16 +5044,16 @@
         </is>
       </c>
       <c r="T50" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:51</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-horsens/QLllNTcj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-aalborg/vPhhMmDd/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.6</v>
+        <v>2.42</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:59</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:59</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.53</v>
+        <v>2.7</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:51</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-aalborg/vPhhMmDd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-horsens/QLllNTcj/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:38</t>
+          <t>20/10/2023 18:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.68</v>
+        <v>4.01</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,32 +7236,32 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.59</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
+          <t>20/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
           <t>20/10/2023 18:39</t>
         </is>
       </c>
-      <c r="R74" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>13/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:36</t>
-        </is>
-      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>1.82</v>
+        <v>2.84</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.93</v>
+        <v>3.03</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.01</v>
+        <v>3.6</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.61</v>
+        <v>2.26</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.8</v>
+        <v>2.31</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:35</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.03</v>
+        <v>1.85</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:38</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.26</v>
+        <v>3.56</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.31</v>
+        <v>4.38</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:35</t>
+          <t>20/10/2023 18:36</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,14 +8217,14 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>1.54</v>
+        <v>3.16</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.53</v>
+        <v>3.3</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/11/2023 18:54</t>
+          <t>03/11/2023 18:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.36</v>
+        <v>3.7</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>4.29</v>
+        <v>3.7</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/11/2023 18:54</t>
+          <t>03/11/2023 18:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.47</v>
+        <v>2.14</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>6.04</v>
+        <v>2.12</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/11/2023 18:54</t>
+          <t>03/11/2023 18:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hobro/jqGLpqDB/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-horsens/dMGHoPc5/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,14 +8309,14 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>3.16</v>
+        <v>1.54</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>03/11/2023 18:58</t>
+          <t>03/11/2023 18:54</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.7</v>
+        <v>4.36</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.7</v>
+        <v>4.29</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>03/11/2023 18:58</t>
+          <t>03/11/2023 18:54</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>2.14</v>
+        <v>5.47</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.12</v>
+        <v>6.04</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>03/11/2023 18:58</t>
+          <t>03/11/2023 18:54</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-horsens/dMGHoPc5/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hobro/jqGLpqDB/</t>
         </is>
       </c>
     </row>
@@ -9562,6 +9562,282 @@
       <c r="V99" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-naestved-if/rD93e0RT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45255.64583333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>17/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>17/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:18</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>17/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:24</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-kolding-if/8t2ib2sB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>18/11/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:32</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-koge/ljAadtCN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45256.625</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>2</v>
+      </c>
+      <c r="J102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-hobro/j5idcMdH/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V102"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>3.87</v>
+        <v>2.44</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>4.85</v>
+        <v>2.98</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:46</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.84</v>
+        <v>3.52</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.09</v>
+        <v>3.55</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:47</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>1.85</v>
+        <v>2.66</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>23/09/2023 17:13</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>1.67</v>
+        <v>2.34</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>29/09/2023 18:45</t>
+          <t>29/09/2023 18:32</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
         </is>
       </c>
     </row>
@@ -6093,71 +6093,71 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
-        <v>2.44</v>
+        <v>3.87</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.98</v>
+        <v>4.85</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:46</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.52</v>
+        <v>3.84</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.55</v>
+        <v>4.09</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:47</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.66</v>
+        <v>1.85</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>23/09/2023 17:13</t>
         </is>
       </c>
       <c r="T62" t="n">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>29/09/2023 18:32</t>
+          <t>29/09/2023 18:45</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-horsens/jqvSYQd2/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-aalborg/0E7GucVE/</t>
         </is>
       </c>
     </row>
@@ -6645,71 +6645,71 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="n">
-        <v>2.6</v>
+        <v>3.66</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.6</v>
+        <v>3.88</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:53</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.5</v>
+        <v>3.86</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.81</v>
+        <v>3.72</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:54</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>30/09/2023 13:12</t>
+          <t>29/09/2023 18:13</t>
         </is>
       </c>
       <c r="T68" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:54</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
         </is>
       </c>
     </row>
@@ -6737,71 +6737,71 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
-        <v>3.66</v>
+        <v>2.6</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:53</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.86</v>
+        <v>3.5</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.72</v>
+        <v>3.81</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:54</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>29/09/2023 18:13</t>
+          <t>30/09/2023 13:12</t>
         </is>
       </c>
       <c r="T69" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>06/10/2023 18:54</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-aalborg/SUv8VC77/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hillerod/hCneYENl/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>1.82</v>
+        <v>2.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.93</v>
+        <v>3.03</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>4.01</v>
+        <v>3.6</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.79</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:59</t>
+          <t>20/10/2023 18:58</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.61</v>
+        <v>2.26</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.8</v>
+        <v>2.31</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>20/10/2023 18:39</t>
+          <t>20/10/2023 18:35</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.84</v>
+        <v>1.92</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.03</v>
+        <v>1.85</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:38</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.6</v>
+        <v>3.68</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.79</v>
+        <v>3.59</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:58</t>
+          <t>20/10/2023 18:39</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.26</v>
+        <v>3.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.31</v>
+        <v>4.38</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>20/10/2023 18:35</t>
+          <t>20/10/2023 18:36</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-fredericia/G4z2ifUQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>20/10/2023 18:38</t>
+          <t>20/10/2023 18:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.68</v>
+        <v>4.01</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,32 +7420,32 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.59</v>
+        <v>3.88</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>20/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>13/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
           <t>20/10/2023 18:39</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>3.56</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>13/10/2023 18:13</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>20/10/2023 18:36</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-helsingor/YqNTnExr/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-kolding-if/CzMXoYil/</t>
         </is>
       </c>
     </row>
@@ -7749,30 +7749,30 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.65</v>
+        <v>2.17</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
@@ -7780,15 +7780,15 @@
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.26</v>
+        <v>3.59</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
@@ -7796,15 +7796,15 @@
         </is>
       </c>
       <c r="R80" t="n">
-        <v>4.42</v>
+        <v>3.63</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>22/10/2023 16:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.85</v>
+        <v>3.27</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
         </is>
       </c>
     </row>
@@ -7841,30 +7841,30 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>2</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Hillerod</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>3</v>
-      </c>
       <c r="J81" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.17</v>
+        <v>1.65</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
@@ -7872,15 +7872,15 @@
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.59</v>
+        <v>4.26</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
@@ -7888,15 +7888,15 @@
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.63</v>
+        <v>4.42</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 16:12</t>
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.27</v>
+        <v>4.85</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-koge/UBGxoh7f/</t>
         </is>
       </c>
     </row>
@@ -9838,6 +9838,190 @@
       <c r="V102" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-hobro/j5idcMdH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45261.77083333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Vendsyssel</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-vendsyssel-ff/MwuEF3Co/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45261.79166666666</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Horsens</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>01/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hobro/8fsQC1d4/</t>
         </is>
       </c>
     </row>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10025,6 +10025,98 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45262.54166666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Hillerod</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>02/12/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hillerod/fiwMDssb/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/denmark_1st-division_2023-2024.xlsx
+++ b/2023/denmark_1st-division_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,22 +573,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>2.27</v>
+        <v>3.32</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -596,15 +596,15 @@
         </is>
       </c>
       <c r="L2" t="n">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21/07/2023 18:57</t>
+          <t>21/07/2023 18:59</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>3.35</v>
+        <v>3.52</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -612,15 +612,15 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>21/07/2023 18:57</t>
+          <t>21/07/2023 18:59</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.16</v>
+        <v>2.13</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -628,16 +628,16 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>21/07/2023 18:57</t>
+          <t>21/07/2023 18:53</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-koge/b3GI3kNQ/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-sonderjyske/WtpM4V7K/</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>3.32</v>
+        <v>2.27</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -688,15 +688,15 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21/07/2023 18:59</t>
+          <t>21/07/2023 18:57</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.52</v>
+        <v>3.35</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -704,15 +704,15 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.58</v>
+        <v>3.54</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>21/07/2023 18:59</t>
+          <t>21/07/2023 18:57</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.13</v>
+        <v>3.16</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -720,16 +720,16 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.1</v>
+        <v>3.11</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>21/07/2023 18:53</t>
+          <t>21/07/2023 18:57</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-sonderjyske/WtpM4V7K/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-koge/b3GI3kNQ/</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -857,14 +857,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Naestved</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1.96</v>
+        <v>3.66</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>2.7</v>
+        <v>2.86</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:32</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.64</v>
+        <v>3.53</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:15</t>
+          <t>23/07/2023 13:16</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>23/07/2023 13:35</t>
+          <t>23/07/2023 13:32</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Naestved</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.81</v>
+        <v>1.96</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -964,15 +964,15 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.77</v>
+        <v>3.64</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -980,15 +980,15 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.73</v>
+        <v>3.65</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:15</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.15</v>
+        <v>3.7</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -996,16 +996,16 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>4.02</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>23/07/2023 13:56</t>
+          <t>23/07/2023 13:35</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-naestved-if/8x6hcm0f/</t>
         </is>
       </c>
     </row>
@@ -1033,22 +1033,22 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hobro</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Horsens</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
       <c r="J7" t="n">
-        <v>3.66</v>
+        <v>1.81</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1056,15 +1056,15 @@
         </is>
       </c>
       <c r="L7" t="n">
-        <v>2.86</v>
+        <v>1.88</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.53</v>
+        <v>3.77</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1072,15 +1072,15 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.55</v>
+        <v>3.73</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:16</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>4.15</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -1088,16 +1088,16 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.42</v>
+        <v>4.02</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>23/07/2023 13:32</t>
+          <t>23/07/2023 13:56</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-horsens/j1ecd7F0/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/fredericia-hobro/fZ1lbTpl/</t>
         </is>
       </c>
     </row>
@@ -1585,71 +1585,71 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Hobro</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>2.23</v>
+        <v>1.72</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>3.15</v>
+        <v>1.81</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:52</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.49</v>
+        <v>4.16</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.23</v>
+        <v>4.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>29/07/2023 14:12</t>
+          <t>01/08/2023 05:42</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.27</v>
+        <v>3.96</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>04/08/2023 18:23</t>
+          <t>04/08/2023 18:56</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
         </is>
       </c>
     </row>
@@ -1677,71 +1677,71 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.72</v>
+        <v>2.23</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.81</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:52</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4.16</v>
+        <v>3.49</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>4.12</v>
+        <v>3.23</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>01/08/2023 05:42</t>
+          <t>29/07/2023 14:12</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.96</v>
+        <v>2.27</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>04/08/2023 18:56</t>
+          <t>04/08/2023 18:23</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-koge/zDaoiXfI/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-hobro/E3bkjiAO/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Sonderjyske</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
         <v>3</v>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Helsingor</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
       <c r="J26" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.31</v>
+        <v>2.99</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.79</v>
+        <v>3.6</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:31</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.2</v>
+        <v>3.38</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>13/08/2023 22:12</t>
+          <t>14/08/2023 04:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.89</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>18/08/2023 18:51</t>
+          <t>18/08/2023 18:30</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>3</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Sonderjyske</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>3</v>
-      </c>
       <c r="J27" t="n">
-        <v>2.08</v>
+        <v>2.01</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.99</v>
+        <v>2.31</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.6</v>
+        <v>3.79</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:31</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.38</v>
+        <v>3.2</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>14/08/2023 04:12</t>
+          <t>13/08/2023 22:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.38</v>
+        <v>2.89</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>18/08/2023 18:30</t>
+          <t>18/08/2023 18:51</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-sonderjyske/UiWf7qoG/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-helsingor/nTtj8PV9/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.19</v>
+        <v>1.4</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.73</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.53</v>
+        <v>4.75</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:47</t>
+          <t>23/08/2023 18:55</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.18</v>
+        <v>6.3</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>20/08/2023 15:13</t>
+          <t>20/08/2023 13:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.61</v>
+        <v>7.36</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 18:08</t>
+          <t>23/08/2023 18:55</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-koge/QZTHMOp3/</t>
         </is>
       </c>
     </row>
@@ -3517,30 +3517,30 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Helsingor</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Koge</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>1.4</v>
+        <v>2.12</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3548,40 +3548,40 @@
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.75</v>
+        <v>3.52</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>3.97</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:55</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>6.3</v>
+        <v>3.35</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>20/08/2023 13:12</t>
+          <t>19/08/2023 13:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>7.36</v>
+        <v>4.08</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 18:55</t>
+          <t>23/08/2023 18:52</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-koge/QZTHMOp3/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Helsingor</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>1</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Hillerod</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>6</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.12</v>
+        <v>2.19</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.82</v>
+        <v>2.73</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.97</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:47</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.35</v>
+        <v>3.18</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>19/08/2023 13:12</t>
+          <t>20/08/2023 15:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>4.08</v>
+        <v>2.61</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 18:52</t>
+          <t>23/08/2023 18:08</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/helsingor-hillerod/bTyWbLhd/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-kolding-if/CWPDN4Vd/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vendsyssel</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.02</v>
+        <v>3.9</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.46</v>
+        <v>4.16</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>27/08/2023 13:12</t>
+          <t>28/08/2023 18:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.62</v>
+        <v>1.83</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>01/09/2023 18:55</t>
+          <t>01/09/2023 18:58</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>Vendsyssel</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Fredericia</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>2.02</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.59</v>
+        <v>2.46</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.02</v>
+        <v>3.79</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>4.54</v>
+        <v>3.9</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.72</v>
+        <v>3.19</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 01:42</t>
+          <t>27/08/2023 13:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.97</v>
+        <v>2.62</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 18:57</t>
+          <t>01/09/2023 18:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/vendsyssel-ff-fredericia/zmIxmLb8/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.9</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>4.16</v>
+        <v>1.59</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.8</v>
+        <v>4.02</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.85</v>
+        <v>4.54</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>1.79</v>
+        <v>3.72</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 18:42</t>
+          <t>28/08/2023 01:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>1.83</v>
+        <v>4.97</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 18:58</t>
+          <t>01/09/2023 18:57</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-sonderjyske/EwHtnuEE/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-boldklubben-1893/MqUfOyM7/</t>
         </is>
       </c>
     </row>
@@ -5081,7 +5081,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -5089,14 +5089,14 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="I51" t="n">
         <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.16</v>
+        <v>2.52</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>2.42</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>15/09/2023 18:56</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.57</v>
+        <v>3.3</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.71</v>
+        <v>3.3</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>15/09/2023 18:56</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.21</v>
+        <v>2.7</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.61</v>
+        <v>3.05</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>15/09/2023 18:55</t>
+          <t>15/09/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-boldklubben-1893/WIuvpi53/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-horsens/QLllNTcj/</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5181,14 +5181,14 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="I52" t="n">
         <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.42</v>
+        <v>2</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.3</v>
+        <v>3.57</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.3</v>
+        <v>3.71</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.7</v>
+        <v>3.21</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.05</v>
+        <v>3.61</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>15/09/2023 18:52</t>
+          <t>15/09/2023 18:55</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/hobro-horsens/QLllNTcj/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/hillerod-boldklubben-1893/WIuvpi53/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="G55" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
         <v>2</v>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Koge</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
       <c r="J55" t="n">
-        <v>1.18</v>
+        <v>2.03</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,15 +5472,15 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.21</v>
+        <v>2.44</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>22/09/2023 18:51</t>
+          <t>22/09/2023 18:37</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>6.97</v>
+        <v>3.62</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,15 +5488,15 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>7.43</v>
+        <v>3.7</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>22/09/2023 18:51</t>
+          <t>22/09/2023 18:37</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>13.84</v>
+        <v>3.5</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>10.88</v>
+        <v>2.74</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>22/09/2023 18:51</t>
+          <t>22/09/2023 18:37</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-koge/preqskkM/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-fredericia/4SyGyTCq/</t>
         </is>
       </c>
     </row>
@@ -5541,71 +5541,71 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Hobro</t>
+          <t>Koge</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.74</v>
+        <v>1.18</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>19/09/2023 23:42</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>2.92</v>
+        <v>1.21</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:51</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.45</v>
+        <v>6.97</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>19/09/2023 23:42</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.46</v>
+        <v>7.43</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:51</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.41</v>
+        <v>13.84</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>19/09/2023 23:42</t>
+          <t>20/09/2023 00:42</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>2.42</v>
+        <v>10.88</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>22/09/2023 18:54</t>
+          <t>22/09/2023 18:51</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hobro/boamt94S/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/aalborg-koge/preqskkM/</t>
         </is>
       </c>
     </row>
@@ -5633,7 +5633,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Kolding IF</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G57" t="n">
@@ -5641,63 +5641,63 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Fredericia</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="I57" t="n">
         <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.03</v>
+        <v>2.74</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>19/09/2023 23:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.44</v>
+        <v>2.92</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>22/09/2023 18:37</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.62</v>
+        <v>3.45</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>19/09/2023 23:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.7</v>
+        <v>3.46</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>22/09/2023 18:37</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.5</v>
+        <v>2.41</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>20/09/2023 00:42</t>
+          <t>19/09/2023 23:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>2.74</v>
+        <v>2.42</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>22/09/2023 18:37</t>
+          <t>22/09/2023 18:54</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-fredericia/4SyGyTCq/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-hobro/boamt94S/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>B.93</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>Hillerod</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>5.01</v>
+        <v>1.84</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>8.029999999999999</v>
+        <v>2.17</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.47</v>
+        <v>3.9</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>5.46</v>
+        <v>3.59</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.57</v>
+        <v>3.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>20/10/2023 19:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.34</v>
+        <v>3.27</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>27/10/2023 18:50</t>
+          <t>27/10/2023 18:51</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Horsens</t>
+          <t>B.93</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Hillerod</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>1.84</v>
+        <v>5.01</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.17</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.9</v>
+        <v>4.47</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.59</v>
+        <v>5.46</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.63</v>
+        <v>1.57</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>20/10/2023 19:12</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.27</v>
+        <v>1.34</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/10/2023 18:51</t>
+          <t>27/10/2023 18:50</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/denmark/1st-division/horsens-hillerod/G4dX6ZTD/</t>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/boldklubben-1893-sonderjyske/2PEpqWy7/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,282 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/denmark/1st-division/sonderjyske-hillerod/fiwMDssb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45263.625</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Koge</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Aalborg</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>9.69</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>26/11/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:35</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/koge-aalborg/jJWUBLBA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45265.77083333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Kolding IF</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>B.93</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/kolding-if-boldklubben-1893/U9VYAuRG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>denmark</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>1st-division</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45265.77083333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Naestved</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Helsingor</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>27/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:16</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>27/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>27/11/2023 07:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/12/2023 18:16</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/denmark/1st-division/naestved-if-helsingor/0UwIENRi/</t>
         </is>
       </c>
     </row>
